--- a/Proyecto_1_amazon_top50_books.xlsx
+++ b/Proyecto_1_amazon_top50_books.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Bootcamp DataAnalytics Andrés Pérez\Proyecto analisis excel\P1 Excel Top books sales\p1-analisis-descriptivo-excel-andres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0264A4D6-14E2-44B9-96EA-F03A95F82769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C01EBF9-5475-4085-B34D-4D29A5F2F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="734" firstSheet="1" activeTab="5" xr2:uid="{227637C1-828F-4262-9B13-B31F3842B02B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="734" firstSheet="3" activeTab="6" xr2:uid="{227637C1-828F-4262-9B13-B31F3842B02B}"/>
   </bookViews>
   <sheets>
     <sheet name="bestsellers with categories" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="642">
   <si>
     <t>Name</t>
   </si>
@@ -1997,6 +1997,9 @@
   </si>
   <si>
     <t>Autor con mas beneficio</t>
+  </si>
+  <si>
+    <t>Take</t>
   </si>
 </sst>
 </file>
@@ -2262,12 +2265,246 @@
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="219">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
@@ -2438,10 +2675,28 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
@@ -2466,6 +2721,141 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
@@ -2530,9 +2920,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
@@ -2946,7 +3333,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E5A-4BFD-B4B5-52175067AB08}"/>
+              <c16:uniqueId val="{00000005-0E5A-4BFD-B4B5-52175067AB08}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4649,7 +5036,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A78A-4398-8BC0-2872BCF2C855}"/>
+              <c16:uniqueId val="{00000005-A78A-4398-8BC0-2872BCF2C855}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5431,7 +5818,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A9F2-4F80-96C0-74F2D294E068}"/>
+              <c16:uniqueId val="{00000005-A9F2-4F80-96C0-74F2D294E068}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8528,15 +8915,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>870858</xdr:colOff>
+      <xdr:colOff>970249</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>67681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>424544</xdr:colOff>
+      <xdr:colOff>616226</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>18569</xdr:rowOff>
+      <xdr:rowOff>159026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8551,8 +8938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1578429" y="239486"/>
-          <a:ext cx="2427515" cy="519312"/>
+          <a:off x="1679240" y="253211"/>
+          <a:ext cx="2515073" cy="647937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8578,14 +8965,14 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-ES" sz="1600"/>
             <a:t>%</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1600" baseline="0"/>
-            <a:t> de Género de Libro</a:t>
+            <a:t> de Género de Libro en 10 años</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8652,7 +9039,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-ES" sz="1600" baseline="0"/>
-            <a:t>Ventas por género por año</a:t>
+            <a:t>Ventas por género por año durante 10 años</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9186,15 +9573,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>47961</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1341120</xdr:colOff>
+      <xdr:colOff>1559859</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9209,8 +9596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="2606040"/>
-          <a:ext cx="2842260" cy="525780"/>
+          <a:off x="836855" y="2405679"/>
+          <a:ext cx="3089686" cy="767827"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9254,15 +9641,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>1667436</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>439270</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>158229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9277,8 +9664,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4396740" y="2613660"/>
-          <a:ext cx="2842260" cy="525780"/>
+          <a:off x="4034118" y="2420472"/>
+          <a:ext cx="3307976" cy="767828"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9317,15 +9704,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>739139</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>586099</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>102387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>511628</xdr:colOff>
+      <xdr:colOff>546847</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
+      <xdr:rowOff>8963</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9340,8 +9727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7651568" y="2631077"/>
-          <a:ext cx="2951117" cy="743494"/>
+          <a:off x="7488923" y="2415281"/>
+          <a:ext cx="3116324" cy="803047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9387,11 +9774,11 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>227512</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>77288</xdr:rowOff>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>370114</xdr:colOff>
+      <xdr:colOff>663388</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>32658</xdr:rowOff>
     </xdr:to>
@@ -9408,8 +9795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11113226" y="2439488"/>
-          <a:ext cx="2874917" cy="880656"/>
+          <a:off x="11074806" y="2438400"/>
+          <a:ext cx="3161147" cy="803623"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9448,15 +9835,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>60959</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1287780</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>1541930</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Tablas dinámicas insights'!A5:B5">
       <xdr:nvSpPr>
@@ -9471,8 +9858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="853440" y="3314700"/>
-          <a:ext cx="2811780" cy="571500"/>
+          <a:off x="849853" y="3270325"/>
+          <a:ext cx="3058759" cy="853440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9500,7 +9887,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{353339DD-FB94-4C5A-8212-63840B2F29FE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9511,7 +9898,7 @@
             <a:pPr algn="ctr"/>
             <a:t>Where the Crawdads Sing</a:t>
           </a:fld>
-          <a:endParaRPr lang="es-ES" sz="1800"/>
+          <a:endParaRPr lang="es-ES" sz="2400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9520,15 +9907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2011680</xdr:colOff>
+      <xdr:colOff>1693433</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>92208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>430305</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Tablas dinámicas insights'!$C$5">
       <xdr:nvSpPr>
@@ -9543,8 +9930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4389120" y="3360420"/>
-          <a:ext cx="2842260" cy="525780"/>
+          <a:off x="4060115" y="3301573"/>
+          <a:ext cx="3273014" cy="875979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9572,7 +9959,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{E7DEDCA6-222E-48DF-9A5B-2BEC12ECD690}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="3200" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9583,7 +9970,7 @@
             <a:pPr algn="ctr"/>
             <a:t>13,10 €</a:t>
           </a:fld>
-          <a:endParaRPr lang="es-ES" sz="2400"/>
+          <a:endParaRPr lang="es-ES" sz="3200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9592,15 +9979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23948</xdr:rowOff>
+      <xdr:colOff>592885</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1088</xdr:rowOff>
+      <xdr:colOff>573741</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="SALES">
       <xdr:nvSpPr>
@@ -9615,8 +10002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7682049" y="3496491"/>
-          <a:ext cx="2850968" cy="532311"/>
+          <a:off x="7495709" y="3304390"/>
+          <a:ext cx="3136432" cy="882127"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9644,7 +10031,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{6B87861D-6D7E-4A07-A7BF-CB09EBA8C063}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9655,7 +10042,7 @@
             <a:pPr algn="ctr"/>
             <a:t>78.499.398,00 €</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-US" sz="2800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9663,16 +10050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>744583</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>224630</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>414746</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>96883</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>663388</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Tablas dinámicas insights'!H16">
       <xdr:nvSpPr>
@@ -9687,8 +10074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10835640" y="3407229"/>
-          <a:ext cx="2848792" cy="532311"/>
+          <a:off x="11071924" y="3334871"/>
+          <a:ext cx="3164029" cy="860612"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9716,7 +10103,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{F58FCC5C-7041-41F4-B2EC-CB8697B66F8C}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9735,19 +10122,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Year">
@@ -9770,7 +10157,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9780,8 +10167,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15098485" y="3635828"/>
-              <a:ext cx="2960914" cy="3973286"/>
+              <a:off x="13694228" y="4498361"/>
+              <a:ext cx="1665515" cy="3329108"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9813,19 +10200,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>500742</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>740228</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>137432</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>206190</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Genre">
@@ -9848,7 +10235,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9858,8 +10245,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="500742" y="4474028"/>
-              <a:ext cx="1828800" cy="2466975"/>
+              <a:off x="838201" y="4465063"/>
+              <a:ext cx="1751960" cy="1001486"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9892,15 +10279,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>805542</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>10885</xdr:rowOff>
+      <xdr:colOff>464883</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>261257</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9929,16 +10316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>620485</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>763919</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>189410</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1667434</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9963,6 +10350,74 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>173915</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>478715</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectángulo 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDF1904-DAAC-EE9E-C356-AE5B536C07F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4952103" y="787101"/>
+          <a:ext cx="4796118" cy="1343810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="4000"/>
+            <a:t>TOP 50 BEST SELLING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="4000" baseline="0"/>
+            <a:t> BOOKS 2009-2019</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -24184,7 +24639,7 @@
     <dataField name="Suma de Sales_Per_Reviews" fld="7" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="81">
+    <format dxfId="210">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -24193,13 +24648,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="209">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="208">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="207">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -27042,10 +27497,10 @@
     <dataField name="Suma de Sales_Per_Reviews" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="69">
+    <format dxfId="198">
       <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="197">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -27126,7 +27581,7 @@
     <dataField name="Suma de Sales_Per_Reviews" fld="7" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="70">
+    <format dxfId="199">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -27187,13 +27642,13 @@
     <dataField name="Promedio de Price" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="73">
+    <format dxfId="202">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="201">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="200">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -28270,17 +28725,17 @@
     <sortCondition descending="1" ref="D1:D551"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7518B292-3AD3-4262-A5DC-0AC6DB7FD97D}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{01CA2F72-C2D8-4327-92E8-C1170C50D016}" uniqueName="2" name="Author" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{8B64FA89-2A3B-4AC4-A86B-F53E3D56756C}" uniqueName="3" name="User Rating" queryTableFieldId="3" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{6725A6C7-FA01-4306-956C-9944CDE6F368}" uniqueName="4" name="Reviews" queryTableFieldId="4" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{459C8D7C-01BB-450A-AB2F-890E48A55ACB}" uniqueName="5" name="Price" queryTableFieldId="5" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{7518B292-3AD3-4262-A5DC-0AC6DB7FD97D}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{01CA2F72-C2D8-4327-92E8-C1170C50D016}" uniqueName="2" name="Author" queryTableFieldId="2" dataDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{8B64FA89-2A3B-4AC4-A86B-F53E3D56756C}" uniqueName="3" name="User Rating" queryTableFieldId="3" dataDxfId="196"/>
+    <tableColumn id="4" xr3:uid="{6725A6C7-FA01-4306-956C-9944CDE6F368}" uniqueName="4" name="Reviews" queryTableFieldId="4" dataDxfId="195"/>
+    <tableColumn id="5" xr3:uid="{459C8D7C-01BB-450A-AB2F-890E48A55ACB}" uniqueName="5" name="Price" queryTableFieldId="5" dataDxfId="213"/>
     <tableColumn id="6" xr3:uid="{B8A405D3-0757-4C2A-80FD-CAB6E811836B}" uniqueName="6" name="Year" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{2F18CD4C-4FFD-4003-BEA9-49AB93C644B7}" uniqueName="7" name="Genre" queryTableFieldId="7" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{89858F37-E169-4B37-8F92-1752BB817A61}" uniqueName="9" name="Sales_Per_Reviews" queryTableFieldId="9" dataDxfId="83">
+    <tableColumn id="7" xr3:uid="{2F18CD4C-4FFD-4003-BEA9-49AB93C644B7}" uniqueName="7" name="Genre" queryTableFieldId="7" dataDxfId="192"/>
+    <tableColumn id="9" xr3:uid="{89858F37-E169-4B37-8F92-1752BB817A61}" uniqueName="9" name="Sales_Per_Reviews" queryTableFieldId="9" dataDxfId="212">
       <calculatedColumnFormula>bestsellers_with_categories[[#This Row],[Reviews]]*bestsellers_with_categories[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9958A8A8-28C9-448D-B14C-837D4CAF28D5}" uniqueName="10" name="Recommended" queryTableFieldId="10" dataDxfId="82">
+    <tableColumn id="10" xr3:uid="{9958A8A8-28C9-448D-B14C-837D4CAF28D5}" uniqueName="10" name="Recommended" queryTableFieldId="10" dataDxfId="211">
       <calculatedColumnFormula>IF(bestsellers_with_categories[[#This Row],[User Rating]]&gt;40,"recommended","not recommended")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -28588,7 +29043,7 @@
   <dimension ref="A1:I551"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B551"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28652,7 +29107,7 @@
       <c r="F2">
         <v>2019</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1">
@@ -28683,7 +29138,7 @@
       <c r="F3">
         <v>2015</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1">
@@ -28714,7 +29169,7 @@
       <c r="F4">
         <v>2016</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="1">
@@ -28745,7 +29200,7 @@
       <c r="F5">
         <v>2018</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="1">
@@ -28776,7 +29231,7 @@
       <c r="F6">
         <v>2019</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="1">
@@ -28807,7 +29262,7 @@
       <c r="F7">
         <v>2012</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="1">
@@ -28838,7 +29293,7 @@
       <c r="F8">
         <v>2013</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="1">
@@ -28869,7 +29324,7 @@
       <c r="F9">
         <v>2014</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="1">
@@ -28900,7 +29355,7 @@
       <c r="F10">
         <v>2012</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="1">
@@ -28931,7 +29386,7 @@
       <c r="F11">
         <v>2013</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="1">
@@ -28962,7 +29417,7 @@
       <c r="F12">
         <v>2014</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="1">
@@ -28993,7 +29448,7 @@
       <c r="F13">
         <v>2014</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1">
@@ -29024,7 +29479,7 @@
       <c r="F14">
         <v>2015</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="1">
@@ -29055,7 +29510,7 @@
       <c r="F15">
         <v>2016</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="1">
@@ -29086,7 +29541,7 @@
       <c r="F16">
         <v>2012</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="1">
@@ -29117,7 +29572,7 @@
       <c r="F17">
         <v>2013</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="1">
@@ -29148,7 +29603,7 @@
       <c r="F18">
         <v>2015</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="1">
@@ -29179,7 +29634,7 @@
       <c r="F19">
         <v>2014</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="1">
@@ -29210,7 +29665,7 @@
       <c r="F20">
         <v>2015</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="1">
@@ -29241,7 +29696,7 @@
       <c r="F21">
         <v>2014</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="1">
@@ -29272,7 +29727,7 @@
       <c r="F22">
         <v>2013</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="1">
@@ -29303,7 +29758,7 @@
       <c r="F23">
         <v>2014</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="1">
@@ -29334,7 +29789,7 @@
       <c r="F24">
         <v>2010</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="1">
@@ -29365,7 +29820,7 @@
       <c r="F25">
         <v>2011</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="1">
@@ -29396,7 +29851,7 @@
       <c r="F26">
         <v>2012</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="1">
@@ -29427,7 +29882,7 @@
       <c r="F27">
         <v>2018</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="1">
@@ -29458,7 +29913,7 @@
       <c r="F28">
         <v>2019</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="1">
@@ -29489,7 +29944,7 @@
       <c r="F29">
         <v>2010</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="1">
@@ -29520,7 +29975,7 @@
       <c r="F30">
         <v>2011</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="1">
@@ -29551,7 +30006,7 @@
       <c r="F31">
         <v>2012</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="1">
@@ -29582,7 +30037,7 @@
       <c r="F32">
         <v>2014</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="1">
@@ -29613,7 +30068,7 @@
       <c r="F33">
         <v>2014</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="1">
@@ -29644,7 +30099,7 @@
       <c r="F34">
         <v>2013</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="1">
@@ -29675,7 +30130,7 @@
       <c r="F35">
         <v>2017</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="1">
@@ -29706,7 +30161,7 @@
       <c r="F36">
         <v>2018</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H36" s="1">
@@ -29737,7 +30192,7 @@
       <c r="F37">
         <v>2019</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="1">
@@ -29768,7 +30223,7 @@
       <c r="F38">
         <v>2019</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="1">
@@ -29799,7 +30254,7 @@
       <c r="F39">
         <v>2013</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="1">
@@ -29830,7 +30285,7 @@
       <c r="F40">
         <v>2014</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="1">
@@ -29861,7 +30316,7 @@
       <c r="F41">
         <v>2010</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="1">
@@ -29892,7 +30347,7 @@
       <c r="F42">
         <v>2011</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="1">
@@ -29923,7 +30378,7 @@
       <c r="F43">
         <v>2012</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="1">
@@ -29954,7 +30409,7 @@
       <c r="F44">
         <v>2017</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="1">
@@ -29985,7 +30440,7 @@
       <c r="F45">
         <v>2018</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="1">
@@ -30016,7 +30471,7 @@
       <c r="F46">
         <v>2019</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="1">
@@ -30047,7 +30502,7 @@
       <c r="F47">
         <v>2019</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="1">
@@ -30078,7 +30533,7 @@
       <c r="F48">
         <v>2013</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="1">
@@ -30109,7 +30564,7 @@
       <c r="F49">
         <v>2014</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="1">
@@ -30140,7 +30595,7 @@
       <c r="F50">
         <v>2015</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="1">
@@ -30171,7 +30626,7 @@
       <c r="F51">
         <v>2016</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="1">
@@ -30202,7 +30657,7 @@
       <c r="F52">
         <v>2018</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="1">
@@ -30233,7 +30688,7 @@
       <c r="F53">
         <v>2015</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="1">
@@ -30264,7 +30719,7 @@
       <c r="F54">
         <v>2015</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H54" s="1">
@@ -30295,7 +30750,7 @@
       <c r="F55">
         <v>2016</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="1">
@@ -30326,7 +30781,7 @@
       <c r="F56">
         <v>2017</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="1">
@@ -30357,7 +30812,7 @@
       <c r="F57">
         <v>2018</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H57" s="1">
@@ -30388,7 +30843,7 @@
       <c r="F58">
         <v>2019</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H58" s="1">
@@ -30419,7 +30874,7 @@
       <c r="F59">
         <v>2014</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H59" s="1">
@@ -30450,7 +30905,7 @@
       <c r="F60">
         <v>2015</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H60" s="1">
@@ -30481,7 +30936,7 @@
       <c r="F61">
         <v>2016</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H61" s="1">
@@ -30512,7 +30967,7 @@
       <c r="F62">
         <v>2017</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="1">
@@ -30543,7 +30998,7 @@
       <c r="F63">
         <v>2018</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="1">
@@ -30574,7 +31029,7 @@
       <c r="F64">
         <v>2016</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="1">
@@ -30605,7 +31060,7 @@
       <c r="F65">
         <v>2016</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="1">
@@ -30636,7 +31091,7 @@
       <c r="F66">
         <v>2017</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="1">
@@ -30667,7 +31122,7 @@
       <c r="F67">
         <v>2012</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="1">
@@ -30698,7 +31153,7 @@
       <c r="F68">
         <v>2014</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H68" s="1">
@@ -30729,7 +31184,7 @@
       <c r="F69">
         <v>2015</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H69" s="1">
@@ -30760,7 +31215,7 @@
       <c r="F70">
         <v>2013</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="1">
@@ -30791,7 +31246,7 @@
       <c r="F71">
         <v>2015</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="1">
@@ -30822,7 +31277,7 @@
       <c r="F72">
         <v>2016</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="1">
@@ -30853,7 +31308,7 @@
       <c r="F73">
         <v>2017</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="1">
@@ -30884,7 +31339,7 @@
       <c r="F74">
         <v>2018</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H74" s="1">
@@ -30915,7 +31370,7 @@
       <c r="F75">
         <v>2019</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H75" s="1">
@@ -30946,7 +31401,7 @@
       <c r="F76">
         <v>2013</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="1">
@@ -30977,7 +31432,7 @@
       <c r="F77">
         <v>2014</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="1">
@@ -31008,7 +31463,7 @@
       <c r="F78">
         <v>2013</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="1">
@@ -31039,7 +31494,7 @@
       <c r="F79">
         <v>2018</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H79" s="1">
@@ -31070,7 +31525,7 @@
       <c r="F80">
         <v>2019</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H80" s="1">
@@ -31101,7 +31556,7 @@
       <c r="F81">
         <v>2015</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="1">
@@ -31132,7 +31587,7 @@
       <c r="F82">
         <v>2016</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H82" s="1">
@@ -31163,7 +31618,7 @@
       <c r="F83">
         <v>2017</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H83" s="1">
@@ -31194,7 +31649,7 @@
       <c r="F84">
         <v>2019</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H84" s="1">
@@ -31225,7 +31680,7 @@
       <c r="F85">
         <v>2010</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="1">
@@ -31256,7 +31711,7 @@
       <c r="F86">
         <v>2011</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="1">
@@ -31287,7 +31742,7 @@
       <c r="F87">
         <v>2012</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="1">
@@ -31318,7 +31773,7 @@
       <c r="F88">
         <v>2017</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="1">
@@ -31349,7 +31804,7 @@
       <c r="F89">
         <v>2018</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="1">
@@ -31380,7 +31835,7 @@
       <c r="F90">
         <v>2018</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H90" s="1">
@@ -31411,7 +31866,7 @@
       <c r="F91">
         <v>2019</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H91" s="1">
@@ -31442,7 +31897,7 @@
       <c r="F92">
         <v>2014</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="1">
@@ -31473,7 +31928,7 @@
       <c r="F93">
         <v>2012</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H93" s="1">
@@ -31504,7 +31959,7 @@
       <c r="F94">
         <v>2013</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H94" s="1">
@@ -31535,7 +31990,7 @@
       <c r="F95">
         <v>2014</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="1">
@@ -31566,7 +32021,7 @@
       <c r="F96">
         <v>2015</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H96" s="1">
@@ -31597,7 +32052,7 @@
       <c r="F97">
         <v>2016</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H97" s="1">
@@ -31628,7 +32083,7 @@
       <c r="F98">
         <v>2017</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H98" s="1">
@@ -31659,7 +32114,7 @@
       <c r="F99">
         <v>2018</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H99" s="1">
@@ -31690,7 +32145,7 @@
       <c r="F100">
         <v>2019</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H100" s="1">
@@ -31721,7 +32176,7 @@
       <c r="F101">
         <v>2013</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H101" s="1">
@@ -31752,7 +32207,7 @@
       <c r="F102">
         <v>2014</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H102" s="1">
@@ -31783,7 +32238,7 @@
       <c r="F103">
         <v>2015</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H103" s="1">
@@ -31814,7 +32269,7 @@
       <c r="F104">
         <v>2016</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H104" s="1">
@@ -31845,7 +32300,7 @@
       <c r="F105">
         <v>2017</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H105" s="1">
@@ -31876,7 +32331,7 @@
       <c r="F106">
         <v>2017</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H106" s="1">
@@ -31907,7 +32362,7 @@
       <c r="F107">
         <v>2012</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H107" s="1">
@@ -31938,7 +32393,7 @@
       <c r="F108">
         <v>2014</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H108" s="1">
@@ -32000,7 +32455,7 @@
       <c r="F110">
         <v>2017</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H110" s="1">
@@ -32031,7 +32486,7 @@
       <c r="F111">
         <v>2017</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H111" s="1">
@@ -32062,7 +32517,7 @@
       <c r="F112">
         <v>2016</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H112" s="1">
@@ -32093,7 +32548,7 @@
       <c r="F113">
         <v>2011</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H113" s="1">
@@ -32124,7 +32579,7 @@
       <c r="F114">
         <v>2012</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H114" s="1">
@@ -32155,7 +32610,7 @@
       <c r="F115">
         <v>2013</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H115" s="1">
@@ -32186,7 +32641,7 @@
       <c r="F116">
         <v>2014</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H116" s="1">
@@ -32217,7 +32672,7 @@
       <c r="F117">
         <v>2015</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H117" s="1">
@@ -32248,7 +32703,7 @@
       <c r="F118">
         <v>2016</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H118" s="1">
@@ -32279,7 +32734,7 @@
       <c r="F119">
         <v>2013</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H119" s="1">
@@ -32310,7 +32765,7 @@
       <c r="F120">
         <v>2014</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H120" s="1">
@@ -32341,7 +32796,7 @@
       <c r="F121">
         <v>2015</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H121" s="1">
@@ -32372,7 +32827,7 @@
       <c r="F122">
         <v>2016</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H122" s="1">
@@ -32403,7 +32858,7 @@
       <c r="F123">
         <v>2017</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H123" s="1">
@@ -32434,7 +32889,7 @@
       <c r="F124">
         <v>2018</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H124" s="1">
@@ -32465,7 +32920,7 @@
       <c r="F125">
         <v>2019</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H125" s="1">
@@ -32496,7 +32951,7 @@
       <c r="F126">
         <v>2018</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H126" s="1">
@@ -32527,7 +32982,7 @@
       <c r="F127">
         <v>2017</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H127" s="1">
@@ -32558,7 +33013,7 @@
       <c r="F128">
         <v>2014</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H128" s="1">
@@ -32589,7 +33044,7 @@
       <c r="F129">
         <v>2015</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H129" s="1">
@@ -32620,7 +33075,7 @@
       <c r="F130">
         <v>2016</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H130" s="1">
@@ -32651,7 +33106,7 @@
       <c r="F131">
         <v>2017</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H131" s="1">
@@ -32682,7 +33137,7 @@
       <c r="F132">
         <v>2018</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H132" s="1">
@@ -32713,7 +33168,7 @@
       <c r="F133">
         <v>2014</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H133" s="1">
@@ -32744,7 +33199,7 @@
       <c r="F134">
         <v>2016</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H134" s="1">
@@ -32775,7 +33230,7 @@
       <c r="F135">
         <v>2014</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H135" s="1">
@@ -32806,7 +33261,7 @@
       <c r="F136">
         <v>2015</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H136" s="1">
@@ -32837,7 +33292,7 @@
       <c r="F137">
         <v>2016</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H137" s="1">
@@ -32868,7 +33323,7 @@
       <c r="F138">
         <v>2017</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H138" s="1">
@@ -32899,7 +33354,7 @@
       <c r="F139">
         <v>2018</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H139" s="1">
@@ -32930,7 +33385,7 @@
       <c r="F140">
         <v>2012</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H140" s="1">
@@ -32961,7 +33416,7 @@
       <c r="F141">
         <v>2017</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H141" s="1">
@@ -32992,7 +33447,7 @@
       <c r="F142">
         <v>2018</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H142" s="1">
@@ -33023,7 +33478,7 @@
       <c r="F143">
         <v>2019</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H143" s="1">
@@ -33054,7 +33509,7 @@
       <c r="F144">
         <v>2011</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H144" s="1">
@@ -33085,7 +33540,7 @@
       <c r="F145">
         <v>2012</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H145" s="1">
@@ -33116,7 +33571,7 @@
       <c r="F146">
         <v>2017</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H146" s="1">
@@ -33147,7 +33602,7 @@
       <c r="F147">
         <v>2019</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H147" s="1">
@@ -33178,7 +33633,7 @@
       <c r="F148">
         <v>2019</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H148" s="1">
@@ -33209,7 +33664,7 @@
       <c r="F149">
         <v>2015</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H149" s="1">
@@ -33240,7 +33695,7 @@
       <c r="F150">
         <v>2013</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H150" s="1">
@@ -33271,7 +33726,7 @@
       <c r="F151">
         <v>2011</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H151" s="1">
@@ -33302,7 +33757,7 @@
       <c r="F152">
         <v>2012</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H152" s="1">
@@ -33333,7 +33788,7 @@
       <c r="F153">
         <v>2016</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H153" s="1">
@@ -33364,7 +33819,7 @@
       <c r="F154">
         <v>2017</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H154" s="1">
@@ -33395,7 +33850,7 @@
       <c r="F155">
         <v>2015</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H155" s="1">
@@ -33426,7 +33881,7 @@
       <c r="F156">
         <v>2012</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H156" s="1">
@@ -33457,7 +33912,7 @@
       <c r="F157">
         <v>2017</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H157" s="1">
@@ -33488,7 +33943,7 @@
       <c r="F158">
         <v>2019</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H158" s="1">
@@ -33519,7 +33974,7 @@
       <c r="F159">
         <v>2016</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H159" s="1">
@@ -33550,7 +34005,7 @@
       <c r="F160">
         <v>2017</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H160" s="1">
@@ -33581,7 +34036,7 @@
       <c r="F161">
         <v>2018</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H161" s="1">
@@ -33612,7 +34067,7 @@
       <c r="F162">
         <v>2019</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H162" s="1">
@@ -33643,7 +34098,7 @@
       <c r="F163">
         <v>2015</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H163" s="1">
@@ -33674,7 +34129,7 @@
       <c r="F164">
         <v>2016</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H164" s="1">
@@ -33705,7 +34160,7 @@
       <c r="F165">
         <v>2017</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H165" s="1">
@@ -33736,7 +34191,7 @@
       <c r="F166">
         <v>2018</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H166" s="1">
@@ -33767,7 +34222,7 @@
       <c r="F167">
         <v>2019</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H167" s="1">
@@ -33798,7 +34253,7 @@
       <c r="F168">
         <v>2012</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H168" s="1">
@@ -33860,7 +34315,7 @@
       <c r="F170">
         <v>2011</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H170" s="1">
@@ -33891,7 +34346,7 @@
       <c r="F171">
         <v>2011</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H171" s="1">
@@ -33922,7 +34377,7 @@
       <c r="F172">
         <v>2010</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H172" s="1">
@@ -33953,7 +34408,7 @@
       <c r="F173">
         <v>2016</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H173" s="1">
@@ -33984,7 +34439,7 @@
       <c r="F174">
         <v>2018</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H174" s="1">
@@ -34015,7 +34470,7 @@
       <c r="F175">
         <v>2012</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H175" s="1">
@@ -34046,7 +34501,7 @@
       <c r="F176">
         <v>2013</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H176" s="1">
@@ -34077,7 +34532,7 @@
       <c r="F177">
         <v>2019</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H177" s="1">
@@ -34108,7 +34563,7 @@
       <c r="F178">
         <v>2016</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H178" s="1">
@@ -34139,7 +34594,7 @@
       <c r="F179">
         <v>2018</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H179" s="1">
@@ -34170,7 +34625,7 @@
       <c r="F180">
         <v>2019</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H180" s="1">
@@ -34201,7 +34656,7 @@
       <c r="F181">
         <v>2011</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H181" s="1">
@@ -34232,7 +34687,7 @@
       <c r="F182">
         <v>2019</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H182" s="1">
@@ -34263,7 +34718,7 @@
       <c r="F183">
         <v>2019</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H183" s="1">
@@ -34294,7 +34749,7 @@
       <c r="F184">
         <v>2013</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H184" s="1">
@@ -34325,7 +34780,7 @@
       <c r="F185">
         <v>2018</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H185" s="1">
@@ -34356,7 +34811,7 @@
       <c r="F186">
         <v>2010</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H186" s="1">
@@ -34387,7 +34842,7 @@
       <c r="F187">
         <v>2011</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H187" s="1">
@@ -34449,7 +34904,7 @@
       <c r="F189">
         <v>2012</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H189" s="1">
@@ -34480,7 +34935,7 @@
       <c r="F190">
         <v>2013</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H190" s="1">
@@ -34511,7 +34966,7 @@
       <c r="F191">
         <v>2014</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H191" s="1">
@@ -34542,7 +34997,7 @@
       <c r="F192">
         <v>2019</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H192" s="1">
@@ -34573,7 +35028,7 @@
       <c r="F193">
         <v>2013</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H193" s="1">
@@ -34604,7 +35059,7 @@
       <c r="F194">
         <v>2014</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H194" s="1">
@@ -34635,7 +35090,7 @@
       <c r="F195">
         <v>2015</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H195" s="1">
@@ -34666,7 +35121,7 @@
       <c r="F196">
         <v>2016</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H196" s="1">
@@ -34697,7 +35152,7 @@
       <c r="F197">
         <v>2017</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H197" s="1">
@@ -34728,7 +35183,7 @@
       <c r="F198">
         <v>2015</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H198" s="1">
@@ -34759,7 +35214,7 @@
       <c r="F199">
         <v>2012</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H199" s="1">
@@ -34790,7 +35245,7 @@
       <c r="F200">
         <v>2011</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H200" s="1">
@@ -34821,7 +35276,7 @@
       <c r="F201">
         <v>2012</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H201" s="1">
@@ -34852,7 +35307,7 @@
       <c r="F202">
         <v>2014</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H202" s="1">
@@ -34883,7 +35338,7 @@
       <c r="F203">
         <v>2015</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H203" s="1">
@@ -34914,7 +35369,7 @@
       <c r="F204">
         <v>2016</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H204" s="1">
@@ -34945,7 +35400,7 @@
       <c r="F205">
         <v>2017</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H205" s="1">
@@ -34976,7 +35431,7 @@
       <c r="F206">
         <v>2018</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H206" s="1">
@@ -35007,7 +35462,7 @@
       <c r="F207">
         <v>2018</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H207" s="1">
@@ -35038,7 +35493,7 @@
       <c r="F208">
         <v>2019</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H208" s="1">
@@ -35069,7 +35524,7 @@
       <c r="F209">
         <v>2012</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H209" s="1">
@@ -35100,7 +35555,7 @@
       <c r="F210">
         <v>2012</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H210" s="1">
@@ -35131,7 +35586,7 @@
       <c r="F211">
         <v>2016</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H211" s="1">
@@ -35162,7 +35617,7 @@
       <c r="F212">
         <v>2018</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H212" s="1">
@@ -35224,7 +35679,7 @@
       <c r="F214">
         <v>2010</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H214" s="1">
@@ -35255,7 +35710,7 @@
       <c r="F215">
         <v>2010</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H215" s="1">
@@ -35317,7 +35772,7 @@
       <c r="F217">
         <v>2016</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H217" s="1">
@@ -35348,7 +35803,7 @@
       <c r="F218">
         <v>2017</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H218" s="1">
@@ -35379,7 +35834,7 @@
       <c r="F219">
         <v>2018</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H219" s="1">
@@ -35410,7 +35865,7 @@
       <c r="F220">
         <v>2019</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H220" s="1">
@@ -35441,7 +35896,7 @@
       <c r="F221">
         <v>2014</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H221" s="1">
@@ -35472,7 +35927,7 @@
       <c r="F222">
         <v>2015</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H222" s="1">
@@ -35503,7 +35958,7 @@
       <c r="F223">
         <v>2016</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H223" s="1">
@@ -35534,7 +35989,7 @@
       <c r="F224">
         <v>2016</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H224" s="1">
@@ -35565,7 +36020,7 @@
       <c r="F225">
         <v>2012</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H225" s="1">
@@ -35596,7 +36051,7 @@
       <c r="F226">
         <v>2013</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H226" s="1">
@@ -35658,7 +36113,7 @@
       <c r="F228">
         <v>2018</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H228" s="1">
@@ -35689,7 +36144,7 @@
       <c r="F229">
         <v>2018</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H229" s="1">
@@ -35720,7 +36175,7 @@
       <c r="F230">
         <v>2017</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H230" s="1">
@@ -35751,7 +36206,7 @@
       <c r="F231">
         <v>2018</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H231" s="1">
@@ -35813,7 +36268,7 @@
       <c r="F233">
         <v>2019</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H233" s="1">
@@ -35844,7 +36299,7 @@
       <c r="F234">
         <v>2011</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H234" s="1">
@@ -35875,7 +36330,7 @@
       <c r="F235">
         <v>2019</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H235" s="1">
@@ -35906,7 +36361,7 @@
       <c r="F236">
         <v>2019</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H236" s="1">
@@ -35937,7 +36392,7 @@
       <c r="F237">
         <v>2017</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H237" s="1">
@@ -35968,7 +36423,7 @@
       <c r="F238">
         <v>2012</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H238" s="1">
@@ -35999,7 +36454,7 @@
       <c r="F239">
         <v>2015</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H239" s="1">
@@ -36030,7 +36485,7 @@
       <c r="F240">
         <v>2011</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H240" s="1">
@@ -36061,7 +36516,7 @@
       <c r="F241">
         <v>2012</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H241" s="1">
@@ -36092,7 +36547,7 @@
       <c r="F242">
         <v>2011</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H242" s="1">
@@ -36123,7 +36578,7 @@
       <c r="F243">
         <v>2012</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H243" s="1">
@@ -36154,7 +36609,7 @@
       <c r="F244">
         <v>2013</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H244" s="1">
@@ -36216,7 +36671,7 @@
       <c r="F246">
         <v>2014</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H246" s="1">
@@ -36247,7 +36702,7 @@
       <c r="F247">
         <v>2010</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H247" s="1">
@@ -36278,7 +36733,7 @@
       <c r="F248">
         <v>2011</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G248" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H248" s="1">
@@ -36309,7 +36764,7 @@
       <c r="F249">
         <v>2012</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H249" s="1">
@@ -36340,7 +36795,7 @@
       <c r="F250">
         <v>2016</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H250" s="1">
@@ -36371,7 +36826,7 @@
       <c r="F251">
         <v>2019</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H251" s="1">
@@ -36402,7 +36857,7 @@
       <c r="F252">
         <v>2019</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G252" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H252" s="1">
@@ -36433,7 +36888,7 @@
       <c r="F253">
         <v>2011</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G253" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H253" s="1">
@@ -36464,7 +36919,7 @@
       <c r="F254">
         <v>2013</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H254" s="1">
@@ -36495,7 +36950,7 @@
       <c r="F255">
         <v>2014</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H255" s="1">
@@ -36526,7 +36981,7 @@
       <c r="F256">
         <v>2015</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H256" s="1">
@@ -36557,7 +37012,7 @@
       <c r="F257">
         <v>2016</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G257" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H257" s="1">
@@ -36588,7 +37043,7 @@
       <c r="F258">
         <v>2016</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G258" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H258" s="1">
@@ -36619,7 +37074,7 @@
       <c r="F259">
         <v>2017</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G259" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H259" s="1">
@@ -36650,7 +37105,7 @@
       <c r="F260">
         <v>2018</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G260" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H260" s="1">
@@ -36681,7 +37136,7 @@
       <c r="F261">
         <v>2019</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G261" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H261" s="1">
@@ -36712,7 +37167,7 @@
       <c r="F262">
         <v>2017</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G262" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H262" s="1">
@@ -36743,7 +37198,7 @@
       <c r="F263">
         <v>2018</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G263" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H263" s="1">
@@ -36774,7 +37229,7 @@
       <c r="F264">
         <v>2019</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G264" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H264" s="1">
@@ -36836,7 +37291,7 @@
       <c r="F266">
         <v>2012</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G266" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H266" s="1">
@@ -36898,7 +37353,7 @@
       <c r="F268">
         <v>2010</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G268" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H268" s="1">
@@ -36929,7 +37384,7 @@
       <c r="F269">
         <v>2011</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G269" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H269" s="1">
@@ -36960,7 +37415,7 @@
       <c r="F270">
         <v>2012</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H270" s="1">
@@ -36991,7 +37446,7 @@
       <c r="F271">
         <v>2013</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H271" s="1">
@@ -37022,7 +37477,7 @@
       <c r="F272">
         <v>2014</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G272" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H272" s="1">
@@ -37053,7 +37508,7 @@
       <c r="F273">
         <v>2015</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G273" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H273" s="1">
@@ -37084,7 +37539,7 @@
       <c r="F274">
         <v>2016</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G274" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H274" s="1">
@@ -37115,7 +37570,7 @@
       <c r="F275">
         <v>2017</v>
       </c>
-      <c r="G275" t="s">
+      <c r="G275" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H275" s="1">
@@ -37146,7 +37601,7 @@
       <c r="F276">
         <v>2018</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G276" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H276" s="1">
@@ -37208,7 +37663,7 @@
       <c r="F278">
         <v>2014</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G278" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H278" s="1">
@@ -37239,7 +37694,7 @@
       <c r="F279">
         <v>2017</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G279" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H279" s="1">
@@ -37270,7 +37725,7 @@
       <c r="F280">
         <v>2019</v>
       </c>
-      <c r="G280" t="s">
+      <c r="G280" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H280" s="1">
@@ -37301,7 +37756,7 @@
       <c r="F281">
         <v>2012</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H281" s="1">
@@ -37332,7 +37787,7 @@
       <c r="F282">
         <v>2014</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G282" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H282" s="1">
@@ -37363,7 +37818,7 @@
       <c r="F283">
         <v>2015</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G283" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H283" s="1">
@@ -37394,7 +37849,7 @@
       <c r="F284">
         <v>2019</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H284" s="1">
@@ -37425,7 +37880,7 @@
       <c r="F285">
         <v>2017</v>
       </c>
-      <c r="G285" t="s">
+      <c r="G285" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H285" s="1">
@@ -37456,7 +37911,7 @@
       <c r="F286">
         <v>2019</v>
       </c>
-      <c r="G286" t="s">
+      <c r="G286" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H286" s="1">
@@ -37487,7 +37942,7 @@
       <c r="F287">
         <v>2016</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G287" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H287" s="1">
@@ -37518,7 +37973,7 @@
       <c r="F288">
         <v>2011</v>
       </c>
-      <c r="G288" t="s">
+      <c r="G288" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H288" s="1">
@@ -37549,7 +38004,7 @@
       <c r="F289">
         <v>2012</v>
       </c>
-      <c r="G289" t="s">
+      <c r="G289" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H289" s="1">
@@ -37580,7 +38035,7 @@
       <c r="F290">
         <v>2018</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G290" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H290" s="1">
@@ -37611,7 +38066,7 @@
       <c r="F291">
         <v>2019</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G291" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H291" s="1">
@@ -37642,7 +38097,7 @@
       <c r="F292">
         <v>2019</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G292" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H292" s="1">
@@ -37673,7 +38128,7 @@
       <c r="F293">
         <v>2010</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G293" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H293" s="1">
@@ -37704,7 +38159,7 @@
       <c r="F294">
         <v>2011</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G294" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H294" s="1">
@@ -37735,7 +38190,7 @@
       <c r="F295">
         <v>2019</v>
       </c>
-      <c r="G295" t="s">
+      <c r="G295" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H295" s="1">
@@ -37766,7 +38221,7 @@
       <c r="F296">
         <v>2019</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G296" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H296" s="1">
@@ -37797,7 +38252,7 @@
       <c r="F297">
         <v>2018</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G297" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H297" s="1">
@@ -37828,7 +38283,7 @@
       <c r="F298">
         <v>2015</v>
       </c>
-      <c r="G298" t="s">
+      <c r="G298" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H298" s="1">
@@ -37859,7 +38314,7 @@
       <c r="F299">
         <v>2016</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G299" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H299" s="1">
@@ -37890,7 +38345,7 @@
       <c r="F300">
         <v>2017</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G300" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H300" s="1">
@@ -37921,7 +38376,7 @@
       <c r="F301">
         <v>2012</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G301" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H301" s="1">
@@ -37952,7 +38407,7 @@
       <c r="F302">
         <v>2013</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G302" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H302" s="1">
@@ -37983,7 +38438,7 @@
       <c r="F303">
         <v>2018</v>
       </c>
-      <c r="G303" t="s">
+      <c r="G303" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H303" s="1">
@@ -38014,7 +38469,7 @@
       <c r="F304">
         <v>2019</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G304" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H304" s="1">
@@ -38045,7 +38500,7 @@
       <c r="F305">
         <v>2017</v>
       </c>
-      <c r="G305" t="s">
+      <c r="G305" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H305" s="1">
@@ -38076,7 +38531,7 @@
       <c r="F306">
         <v>2018</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G306" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H306" s="1">
@@ -38138,7 +38593,7 @@
       <c r="F308">
         <v>2010</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G308" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H308" s="1">
@@ -38169,7 +38624,7 @@
       <c r="F309">
         <v>2018</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G309" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H309" s="1">
@@ -38200,7 +38655,7 @@
       <c r="F310">
         <v>2019</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G310" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H310" s="1">
@@ -38231,7 +38686,7 @@
       <c r="F311">
         <v>2014</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G311" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H311" s="1">
@@ -38262,7 +38717,7 @@
       <c r="F312">
         <v>2013</v>
       </c>
-      <c r="G312" t="s">
+      <c r="G312" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H312" s="1">
@@ -38293,7 +38748,7 @@
       <c r="F313">
         <v>2019</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G313" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H313" s="1">
@@ -38324,7 +38779,7 @@
       <c r="F314">
         <v>2018</v>
       </c>
-      <c r="G314" t="s">
+      <c r="G314" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H314" s="1">
@@ -38355,7 +38810,7 @@
       <c r="F315">
         <v>2012</v>
       </c>
-      <c r="G315" t="s">
+      <c r="G315" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H315" s="1">
@@ -38386,7 +38841,7 @@
       <c r="F316">
         <v>2013</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G316" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H316" s="1">
@@ -38417,7 +38872,7 @@
       <c r="F317">
         <v>2013</v>
       </c>
-      <c r="G317" t="s">
+      <c r="G317" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H317" s="1">
@@ -38448,7 +38903,7 @@
       <c r="F318">
         <v>2013</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G318" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H318" s="1">
@@ -38479,7 +38934,7 @@
       <c r="F319">
         <v>2014</v>
       </c>
-      <c r="G319" t="s">
+      <c r="G319" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H319" s="1">
@@ -38510,7 +38965,7 @@
       <c r="F320">
         <v>2015</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G320" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H320" s="1">
@@ -38541,7 +38996,7 @@
       <c r="F321">
         <v>2016</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G321" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H321" s="1">
@@ -38572,7 +39027,7 @@
       <c r="F322">
         <v>2017</v>
       </c>
-      <c r="G322" t="s">
+      <c r="G322" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H322" s="1">
@@ -38603,7 +39058,7 @@
       <c r="F323">
         <v>2013</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G323" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H323" s="1">
@@ -38634,7 +39089,7 @@
       <c r="F324">
         <v>2013</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G324" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H324" s="1">
@@ -38696,7 +39151,7 @@
       <c r="F326">
         <v>2013</v>
       </c>
-      <c r="G326" t="s">
+      <c r="G326" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H326" s="1">
@@ -38727,7 +39182,7 @@
       <c r="F327">
         <v>2014</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G327" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H327" s="1">
@@ -38758,7 +39213,7 @@
       <c r="F328">
         <v>2018</v>
       </c>
-      <c r="G328" t="s">
+      <c r="G328" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H328" s="1">
@@ -38789,7 +39244,7 @@
       <c r="F329">
         <v>2014</v>
       </c>
-      <c r="G329" t="s">
+      <c r="G329" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H329" s="1">
@@ -38820,7 +39275,7 @@
       <c r="F330">
         <v>2014</v>
       </c>
-      <c r="G330" t="s">
+      <c r="G330" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H330" s="1">
@@ -38851,7 +39306,7 @@
       <c r="F331">
         <v>2012</v>
       </c>
-      <c r="G331" t="s">
+      <c r="G331" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H331" s="1">
@@ -38882,7 +39337,7 @@
       <c r="F332">
         <v>2011</v>
       </c>
-      <c r="G332" t="s">
+      <c r="G332" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H332" s="1">
@@ -38913,7 +39368,7 @@
       <c r="F333">
         <v>2012</v>
       </c>
-      <c r="G333" t="s">
+      <c r="G333" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H333" s="1">
@@ -38944,7 +39399,7 @@
       <c r="F334">
         <v>2013</v>
       </c>
-      <c r="G334" t="s">
+      <c r="G334" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H334" s="1">
@@ -38975,7 +39430,7 @@
       <c r="F335">
         <v>2012</v>
       </c>
-      <c r="G335" t="s">
+      <c r="G335" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H335" s="1">
@@ -39006,7 +39461,7 @@
       <c r="F336">
         <v>2011</v>
       </c>
-      <c r="G336" t="s">
+      <c r="G336" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H336" s="1">
@@ -39037,7 +39492,7 @@
       <c r="F337">
         <v>2015</v>
       </c>
-      <c r="G337" t="s">
+      <c r="G337" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H337" s="1">
@@ -39068,7 +39523,7 @@
       <c r="F338">
         <v>2015</v>
       </c>
-      <c r="G338" t="s">
+      <c r="G338" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H338" s="1">
@@ -39099,7 +39554,7 @@
       <c r="F339">
         <v>2018</v>
       </c>
-      <c r="G339" t="s">
+      <c r="G339" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H339" s="1">
@@ -39130,7 +39585,7 @@
       <c r="F340">
         <v>2013</v>
       </c>
-      <c r="G340" t="s">
+      <c r="G340" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H340" s="1">
@@ -39161,7 +39616,7 @@
       <c r="F341">
         <v>2019</v>
       </c>
-      <c r="G341" t="s">
+      <c r="G341" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H341" s="1">
@@ -39192,7 +39647,7 @@
       <c r="F342">
         <v>2018</v>
       </c>
-      <c r="G342" t="s">
+      <c r="G342" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H342" s="1">
@@ -39223,7 +39678,7 @@
       <c r="F343">
         <v>2018</v>
       </c>
-      <c r="G343" t="s">
+      <c r="G343" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H343" s="1">
@@ -39254,7 +39709,7 @@
       <c r="F344">
         <v>2011</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G344" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H344" s="1">
@@ -39285,7 +39740,7 @@
       <c r="F345">
         <v>2014</v>
       </c>
-      <c r="G345" t="s">
+      <c r="G345" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H345" s="1">
@@ -39316,7 +39771,7 @@
       <c r="F346">
         <v>2019</v>
       </c>
-      <c r="G346" t="s">
+      <c r="G346" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H346" s="1">
@@ -39347,7 +39802,7 @@
       <c r="F347">
         <v>2018</v>
       </c>
-      <c r="G347" t="s">
+      <c r="G347" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H347" s="1">
@@ -39378,7 +39833,7 @@
       <c r="F348">
         <v>2016</v>
       </c>
-      <c r="G348" t="s">
+      <c r="G348" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H348" s="1">
@@ -39409,7 +39864,7 @@
       <c r="F349">
         <v>2017</v>
       </c>
-      <c r="G349" t="s">
+      <c r="G349" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H349" s="1">
@@ -39471,7 +39926,7 @@
       <c r="F351">
         <v>2011</v>
       </c>
-      <c r="G351" t="s">
+      <c r="G351" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H351" s="1">
@@ -39502,7 +39957,7 @@
       <c r="F352">
         <v>2012</v>
       </c>
-      <c r="G352" t="s">
+      <c r="G352" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H352" s="1">
@@ -39533,7 +39988,7 @@
       <c r="F353">
         <v>2013</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G353" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H353" s="1">
@@ -39564,7 +40019,7 @@
       <c r="F354">
         <v>2014</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G354" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H354" s="1">
@@ -39595,7 +40050,7 @@
       <c r="F355">
         <v>2015</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G355" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H355" s="1">
@@ -39626,7 +40081,7 @@
       <c r="F356">
         <v>2016</v>
       </c>
-      <c r="G356" t="s">
+      <c r="G356" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H356" s="1">
@@ -39719,7 +40174,7 @@
       <c r="F359">
         <v>2017</v>
       </c>
-      <c r="G359" t="s">
+      <c r="G359" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H359" s="1">
@@ -39750,7 +40205,7 @@
       <c r="F360">
         <v>2017</v>
       </c>
-      <c r="G360" t="s">
+      <c r="G360" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H360" s="1">
@@ -39781,7 +40236,7 @@
       <c r="F361">
         <v>2019</v>
       </c>
-      <c r="G361" t="s">
+      <c r="G361" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H361" s="1">
@@ -39812,7 +40267,7 @@
       <c r="F362">
         <v>2018</v>
       </c>
-      <c r="G362" t="s">
+      <c r="G362" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H362" s="1">
@@ -39843,7 +40298,7 @@
       <c r="F363">
         <v>2015</v>
       </c>
-      <c r="G363" t="s">
+      <c r="G363" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H363" s="1">
@@ -39874,7 +40329,7 @@
       <c r="F364">
         <v>2013</v>
       </c>
-      <c r="G364" t="s">
+      <c r="G364" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H364" s="1">
@@ -39905,7 +40360,7 @@
       <c r="F365">
         <v>2015</v>
       </c>
-      <c r="G365" t="s">
+      <c r="G365" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H365" s="1">
@@ -39936,7 +40391,7 @@
       <c r="F366">
         <v>2019</v>
       </c>
-      <c r="G366" t="s">
+      <c r="G366" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H366" s="1">
@@ -39967,7 +40422,7 @@
       <c r="F367">
         <v>2011</v>
       </c>
-      <c r="G367" t="s">
+      <c r="G367" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H367" s="1">
@@ -39998,7 +40453,7 @@
       <c r="F368">
         <v>2019</v>
       </c>
-      <c r="G368" t="s">
+      <c r="G368" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H368" s="1">
@@ -40029,7 +40484,7 @@
       <c r="F369">
         <v>2016</v>
       </c>
-      <c r="G369" t="s">
+      <c r="G369" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H369" s="1">
@@ -40060,7 +40515,7 @@
       <c r="F370">
         <v>2017</v>
       </c>
-      <c r="G370" t="s">
+      <c r="G370" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H370" s="1">
@@ -40091,7 +40546,7 @@
       <c r="F371">
         <v>2015</v>
       </c>
-      <c r="G371" t="s">
+      <c r="G371" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H371" s="1">
@@ -40122,7 +40577,7 @@
       <c r="F372">
         <v>2016</v>
       </c>
-      <c r="G372" t="s">
+      <c r="G372" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H372" s="1">
@@ -40153,7 +40608,7 @@
       <c r="F373">
         <v>2018</v>
       </c>
-      <c r="G373" t="s">
+      <c r="G373" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H373" s="1">
@@ -40184,7 +40639,7 @@
       <c r="F374">
         <v>2016</v>
       </c>
-      <c r="G374" t="s">
+      <c r="G374" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H374" s="1">
@@ -40215,7 +40670,7 @@
       <c r="F375">
         <v>2010</v>
       </c>
-      <c r="G375" t="s">
+      <c r="G375" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H375" s="1">
@@ -40246,7 +40701,7 @@
       <c r="F376">
         <v>2011</v>
       </c>
-      <c r="G376" t="s">
+      <c r="G376" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H376" s="1">
@@ -40277,7 +40732,7 @@
       <c r="F377">
         <v>2012</v>
       </c>
-      <c r="G377" t="s">
+      <c r="G377" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H377" s="1">
@@ -40308,7 +40763,7 @@
       <c r="F378">
         <v>2013</v>
       </c>
-      <c r="G378" t="s">
+      <c r="G378" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H378" s="1">
@@ -40339,7 +40794,7 @@
       <c r="F379">
         <v>2014</v>
       </c>
-      <c r="G379" t="s">
+      <c r="G379" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H379" s="1">
@@ -40370,7 +40825,7 @@
       <c r="F380">
         <v>2015</v>
       </c>
-      <c r="G380" t="s">
+      <c r="G380" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H380" s="1">
@@ -40401,7 +40856,7 @@
       <c r="F381">
         <v>2016</v>
       </c>
-      <c r="G381" t="s">
+      <c r="G381" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H381" s="1">
@@ -40432,7 +40887,7 @@
       <c r="F382">
         <v>2017</v>
       </c>
-      <c r="G382" t="s">
+      <c r="G382" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H382" s="1">
@@ -40494,7 +40949,7 @@
       <c r="F384">
         <v>2018</v>
       </c>
-      <c r="G384" t="s">
+      <c r="G384" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H384" s="1">
@@ -40556,7 +41011,7 @@
       <c r="F386">
         <v>2013</v>
       </c>
-      <c r="G386" t="s">
+      <c r="G386" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H386" s="1">
@@ -40587,7 +41042,7 @@
       <c r="F387">
         <v>2010</v>
       </c>
-      <c r="G387" t="s">
+      <c r="G387" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H387" s="1">
@@ -40618,7 +41073,7 @@
       <c r="F388">
         <v>2011</v>
       </c>
-      <c r="G388" t="s">
+      <c r="G388" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H388" s="1">
@@ -40649,7 +41104,7 @@
       <c r="F389">
         <v>2013</v>
       </c>
-      <c r="G389" t="s">
+      <c r="G389" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H389" s="1">
@@ -40680,7 +41135,7 @@
       <c r="F390">
         <v>2017</v>
       </c>
-      <c r="G390" t="s">
+      <c r="G390" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H390" s="1">
@@ -40711,7 +41166,7 @@
       <c r="F391">
         <v>2016</v>
       </c>
-      <c r="G391" t="s">
+      <c r="G391" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H391" s="1">
@@ -40742,7 +41197,7 @@
       <c r="F392">
         <v>2017</v>
       </c>
-      <c r="G392" t="s">
+      <c r="G392" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H392" s="1">
@@ -40773,7 +41228,7 @@
       <c r="F393">
         <v>2013</v>
       </c>
-      <c r="G393" t="s">
+      <c r="G393" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H393" s="1">
@@ -40804,7 +41259,7 @@
       <c r="F394">
         <v>2015</v>
       </c>
-      <c r="G394" t="s">
+      <c r="G394" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H394" s="1">
@@ -40835,7 +41290,7 @@
       <c r="F395">
         <v>2016</v>
       </c>
-      <c r="G395" t="s">
+      <c r="G395" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H395" s="1">
@@ -40866,7 +41321,7 @@
       <c r="F396">
         <v>2017</v>
       </c>
-      <c r="G396" t="s">
+      <c r="G396" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H396" s="1">
@@ -40897,7 +41352,7 @@
       <c r="F397">
         <v>2013</v>
       </c>
-      <c r="G397" t="s">
+      <c r="G397" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H397" s="1">
@@ -40928,7 +41383,7 @@
       <c r="F398">
         <v>2011</v>
       </c>
-      <c r="G398" t="s">
+      <c r="G398" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H398" s="1">
@@ -40990,7 +41445,7 @@
       <c r="F400">
         <v>2010</v>
       </c>
-      <c r="G400" t="s">
+      <c r="G400" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H400" s="1">
@@ -41021,7 +41476,7 @@
       <c r="F401">
         <v>2011</v>
       </c>
-      <c r="G401" t="s">
+      <c r="G401" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H401" s="1">
@@ -41052,7 +41507,7 @@
       <c r="F402">
         <v>2016</v>
       </c>
-      <c r="G402" t="s">
+      <c r="G402" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H402" s="1">
@@ -41083,7 +41538,7 @@
       <c r="F403">
         <v>2011</v>
       </c>
-      <c r="G403" t="s">
+      <c r="G403" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H403" s="1">
@@ -41145,7 +41600,7 @@
       <c r="F405">
         <v>2010</v>
       </c>
-      <c r="G405" t="s">
+      <c r="G405" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H405" s="1">
@@ -41176,7 +41631,7 @@
       <c r="F406">
         <v>2011</v>
       </c>
-      <c r="G406" t="s">
+      <c r="G406" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H406" s="1">
@@ -41207,7 +41662,7 @@
       <c r="F407">
         <v>2016</v>
       </c>
-      <c r="G407" t="s">
+      <c r="G407" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H407" s="1">
@@ -41238,7 +41693,7 @@
       <c r="F408">
         <v>2017</v>
       </c>
-      <c r="G408" t="s">
+      <c r="G408" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H408" s="1">
@@ -41269,7 +41724,7 @@
       <c r="F409">
         <v>2011</v>
       </c>
-      <c r="G409" t="s">
+      <c r="G409" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H409" s="1">
@@ -41300,7 +41755,7 @@
       <c r="F410">
         <v>2011</v>
       </c>
-      <c r="G410" t="s">
+      <c r="G410" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H410" s="1">
@@ -41331,7 +41786,7 @@
       <c r="F411">
         <v>2012</v>
       </c>
-      <c r="G411" t="s">
+      <c r="G411" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H411" s="1">
@@ -41362,7 +41817,7 @@
       <c r="F412">
         <v>2011</v>
       </c>
-      <c r="G412" t="s">
+      <c r="G412" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H412" s="1">
@@ -41393,7 +41848,7 @@
       <c r="F413">
         <v>2013</v>
       </c>
-      <c r="G413" t="s">
+      <c r="G413" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H413" s="1">
@@ -41455,7 +41910,7 @@
       <c r="F415">
         <v>2015</v>
       </c>
-      <c r="G415" t="s">
+      <c r="G415" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H415" s="1">
@@ -41486,7 +41941,7 @@
       <c r="F416">
         <v>2018</v>
       </c>
-      <c r="G416" t="s">
+      <c r="G416" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H416" s="1">
@@ -41517,7 +41972,7 @@
       <c r="F417">
         <v>2015</v>
       </c>
-      <c r="G417" t="s">
+      <c r="G417" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H417" s="1">
@@ -41579,7 +42034,7 @@
       <c r="F419">
         <v>2014</v>
       </c>
-      <c r="G419" t="s">
+      <c r="G419" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H419" s="1">
@@ -41703,7 +42158,7 @@
       <c r="F423">
         <v>2010</v>
       </c>
-      <c r="G423" t="s">
+      <c r="G423" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H423" s="1">
@@ -41734,7 +42189,7 @@
       <c r="F424">
         <v>2018</v>
       </c>
-      <c r="G424" t="s">
+      <c r="G424" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H424" s="1">
@@ -41796,7 +42251,7 @@
       <c r="F426">
         <v>2011</v>
       </c>
-      <c r="G426" t="s">
+      <c r="G426" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H426" s="1">
@@ -41827,7 +42282,7 @@
       <c r="F427">
         <v>2016</v>
       </c>
-      <c r="G427" t="s">
+      <c r="G427" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H427" s="1">
@@ -41858,7 +42313,7 @@
       <c r="F428">
         <v>2013</v>
       </c>
-      <c r="G428" t="s">
+      <c r="G428" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H428" s="1">
@@ -41889,7 +42344,7 @@
       <c r="F429">
         <v>2014</v>
       </c>
-      <c r="G429" t="s">
+      <c r="G429" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H429" s="1">
@@ -41920,7 +42375,7 @@
       <c r="F430">
         <v>2015</v>
       </c>
-      <c r="G430" t="s">
+      <c r="G430" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H430" s="1">
@@ -41951,7 +42406,7 @@
       <c r="F431">
         <v>2014</v>
       </c>
-      <c r="G431" t="s">
+      <c r="G431" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H431" s="1">
@@ -41982,7 +42437,7 @@
       <c r="F432">
         <v>2010</v>
       </c>
-      <c r="G432" t="s">
+      <c r="G432" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H432" s="1">
@@ -42013,7 +42468,7 @@
       <c r="F433">
         <v>2018</v>
       </c>
-      <c r="G433" t="s">
+      <c r="G433" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H433" s="1">
@@ -42044,7 +42499,7 @@
       <c r="F434">
         <v>2015</v>
       </c>
-      <c r="G434" t="s">
+      <c r="G434" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H434" s="1">
@@ -42075,7 +42530,7 @@
       <c r="F435">
         <v>2010</v>
       </c>
-      <c r="G435" t="s">
+      <c r="G435" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H435" s="1">
@@ -42106,7 +42561,7 @@
       <c r="F436">
         <v>2010</v>
       </c>
-      <c r="G436" t="s">
+      <c r="G436" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H436" s="1">
@@ -42137,7 +42592,7 @@
       <c r="F437">
         <v>2016</v>
       </c>
-      <c r="G437" t="s">
+      <c r="G437" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H437" s="1">
@@ -42199,7 +42654,7 @@
       <c r="F439">
         <v>2013</v>
       </c>
-      <c r="G439" t="s">
+      <c r="G439" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H439" s="1">
@@ -42230,7 +42685,7 @@
       <c r="F440">
         <v>2014</v>
       </c>
-      <c r="G440" t="s">
+      <c r="G440" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H440" s="1">
@@ -42261,7 +42716,7 @@
       <c r="F441">
         <v>2010</v>
       </c>
-      <c r="G441" t="s">
+      <c r="G441" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H441" s="1">
@@ -42292,7 +42747,7 @@
       <c r="F442">
         <v>2011</v>
       </c>
-      <c r="G442" t="s">
+      <c r="G442" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H442" s="1">
@@ -42323,7 +42778,7 @@
       <c r="F443">
         <v>2012</v>
       </c>
-      <c r="G443" t="s">
+      <c r="G443" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H443" s="1">
@@ -42354,7 +42809,7 @@
       <c r="F444">
         <v>2013</v>
       </c>
-      <c r="G444" t="s">
+      <c r="G444" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H444" s="1">
@@ -42385,7 +42840,7 @@
       <c r="F445">
         <v>2014</v>
       </c>
-      <c r="G445" t="s">
+      <c r="G445" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H445" s="1">
@@ -42416,7 +42871,7 @@
       <c r="F446">
         <v>2010</v>
       </c>
-      <c r="G446" t="s">
+      <c r="G446" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H446" s="1">
@@ -42447,7 +42902,7 @@
       <c r="F447">
         <v>2011</v>
       </c>
-      <c r="G447" t="s">
+      <c r="G447" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H447" s="1">
@@ -42478,7 +42933,7 @@
       <c r="F448">
         <v>2012</v>
       </c>
-      <c r="G448" t="s">
+      <c r="G448" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H448" s="1">
@@ -42540,7 +42995,7 @@
       <c r="F450">
         <v>2015</v>
       </c>
-      <c r="G450" t="s">
+      <c r="G450" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H450" s="1">
@@ -42571,7 +43026,7 @@
       <c r="F451">
         <v>2011</v>
       </c>
-      <c r="G451" t="s">
+      <c r="G451" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H451" s="1">
@@ -42602,7 +43057,7 @@
       <c r="F452">
         <v>2010</v>
       </c>
-      <c r="G452" t="s">
+      <c r="G452" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H452" s="1">
@@ -42695,7 +43150,7 @@
       <c r="F455">
         <v>2010</v>
       </c>
-      <c r="G455" t="s">
+      <c r="G455" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H455" s="1">
@@ -42726,7 +43181,7 @@
       <c r="F456">
         <v>2011</v>
       </c>
-      <c r="G456" t="s">
+      <c r="G456" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H456" s="1">
@@ -42757,7 +43212,7 @@
       <c r="F457">
         <v>2012</v>
       </c>
-      <c r="G457" t="s">
+      <c r="G457" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H457" s="1">
@@ -42788,7 +43243,7 @@
       <c r="F458">
         <v>2013</v>
       </c>
-      <c r="G458" t="s">
+      <c r="G458" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H458" s="1">
@@ -42819,7 +43274,7 @@
       <c r="F459">
         <v>2017</v>
       </c>
-      <c r="G459" t="s">
+      <c r="G459" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H459" s="1">
@@ -42881,7 +43336,7 @@
       <c r="F461">
         <v>2011</v>
       </c>
-      <c r="G461" t="s">
+      <c r="G461" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H461" s="1">
@@ -42912,7 +43367,7 @@
       <c r="F462">
         <v>2012</v>
       </c>
-      <c r="G462" t="s">
+      <c r="G462" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H462" s="1">
@@ -42943,7 +43398,7 @@
       <c r="F463">
         <v>2017</v>
       </c>
-      <c r="G463" t="s">
+      <c r="G463" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H463" s="1">
@@ -42974,7 +43429,7 @@
       <c r="F464">
         <v>2017</v>
       </c>
-      <c r="G464" t="s">
+      <c r="G464" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H464" s="1">
@@ -43005,7 +43460,7 @@
       <c r="F465">
         <v>2017</v>
       </c>
-      <c r="G465" t="s">
+      <c r="G465" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H465" s="1">
@@ -43036,7 +43491,7 @@
       <c r="F466">
         <v>2015</v>
       </c>
-      <c r="G466" t="s">
+      <c r="G466" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H466" s="1">
@@ -43098,7 +43553,7 @@
       <c r="F468">
         <v>2015</v>
       </c>
-      <c r="G468" t="s">
+      <c r="G468" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H468" s="1">
@@ -43129,7 +43584,7 @@
       <c r="F469">
         <v>2014</v>
       </c>
-      <c r="G469" t="s">
+      <c r="G469" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H469" s="1">
@@ -43160,7 +43615,7 @@
       <c r="F470">
         <v>2012</v>
       </c>
-      <c r="G470" t="s">
+      <c r="G470" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H470" s="1">
@@ -43191,7 +43646,7 @@
       <c r="F471">
         <v>2015</v>
       </c>
-      <c r="G471" t="s">
+      <c r="G471" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H471" s="1">
@@ -43222,7 +43677,7 @@
       <c r="F472">
         <v>2016</v>
       </c>
-      <c r="G472" t="s">
+      <c r="G472" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H472" s="1">
@@ -43253,7 +43708,7 @@
       <c r="F473">
         <v>2010</v>
       </c>
-      <c r="G473" t="s">
+      <c r="G473" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H473" s="1">
@@ -43284,7 +43739,7 @@
       <c r="F474">
         <v>2019</v>
       </c>
-      <c r="G474" t="s">
+      <c r="G474" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H474" s="1">
@@ -43315,7 +43770,7 @@
       <c r="F475">
         <v>2013</v>
       </c>
-      <c r="G475" t="s">
+      <c r="G475" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H475" s="1">
@@ -43346,7 +43801,7 @@
       <c r="F476">
         <v>2014</v>
       </c>
-      <c r="G476" t="s">
+      <c r="G476" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H476" s="1">
@@ -43377,7 +43832,7 @@
       <c r="F477">
         <v>2012</v>
       </c>
-      <c r="G477" t="s">
+      <c r="G477" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H477" s="1">
@@ -43408,7 +43863,7 @@
       <c r="F478">
         <v>2010</v>
       </c>
-      <c r="G478" t="s">
+      <c r="G478" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H478" s="1">
@@ -43439,7 +43894,7 @@
       <c r="F479">
         <v>2018</v>
       </c>
-      <c r="G479" t="s">
+      <c r="G479" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H479" s="1">
@@ -43470,7 +43925,7 @@
       <c r="F480">
         <v>2015</v>
       </c>
-      <c r="G480" t="s">
+      <c r="G480" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H480" s="1">
@@ -43501,7 +43956,7 @@
       <c r="F481">
         <v>2011</v>
       </c>
-      <c r="G481" t="s">
+      <c r="G481" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H481" s="1">
@@ -43532,7 +43987,7 @@
       <c r="F482">
         <v>2016</v>
       </c>
-      <c r="G482" t="s">
+      <c r="G482" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H482" s="1">
@@ -43563,7 +44018,7 @@
       <c r="F483">
         <v>2010</v>
       </c>
-      <c r="G483" t="s">
+      <c r="G483" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H483" s="1">
@@ -43594,7 +44049,7 @@
       <c r="F484">
         <v>2013</v>
       </c>
-      <c r="G484" t="s">
+      <c r="G484" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H484" s="1">
@@ -43625,7 +44080,7 @@
       <c r="F485">
         <v>2010</v>
       </c>
-      <c r="G485" t="s">
+      <c r="G485" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H485" s="1">
@@ -43656,7 +44111,7 @@
       <c r="F486">
         <v>2010</v>
       </c>
-      <c r="G486" t="s">
+      <c r="G486" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H486" s="1">
@@ -43687,7 +44142,7 @@
       <c r="F487">
         <v>2015</v>
       </c>
-      <c r="G487" t="s">
+      <c r="G487" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H487" s="1">
@@ -43718,7 +44173,7 @@
       <c r="F488">
         <v>2010</v>
       </c>
-      <c r="G488" t="s">
+      <c r="G488" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H488" s="1">
@@ -43749,7 +44204,7 @@
       <c r="F489">
         <v>2011</v>
       </c>
-      <c r="G489" t="s">
+      <c r="G489" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H489" s="1">
@@ -43780,7 +44235,7 @@
       <c r="F490">
         <v>2012</v>
       </c>
-      <c r="G490" t="s">
+      <c r="G490" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H490" s="1">
@@ -43811,7 +44266,7 @@
       <c r="F491">
         <v>2011</v>
       </c>
-      <c r="G491" t="s">
+      <c r="G491" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H491" s="1">
@@ -43842,7 +44297,7 @@
       <c r="F492">
         <v>2011</v>
       </c>
-      <c r="G492" t="s">
+      <c r="G492" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H492" s="1">
@@ -43873,7 +44328,7 @@
       <c r="F493">
         <v>2010</v>
       </c>
-      <c r="G493" t="s">
+      <c r="G493" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H493" s="1">
@@ -43904,7 +44359,7 @@
       <c r="F494">
         <v>2011</v>
       </c>
-      <c r="G494" t="s">
+      <c r="G494" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H494" s="1">
@@ -43966,7 +44421,7 @@
       <c r="F496">
         <v>2010</v>
       </c>
-      <c r="G496" t="s">
+      <c r="G496" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H496" s="1">
@@ -43997,7 +44452,7 @@
       <c r="F497">
         <v>2015</v>
       </c>
-      <c r="G497" t="s">
+      <c r="G497" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H497" s="1">
@@ -44028,7 +44483,7 @@
       <c r="F498">
         <v>2010</v>
       </c>
-      <c r="G498" t="s">
+      <c r="G498" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H498" s="1">
@@ -44059,7 +44514,7 @@
       <c r="F499">
         <v>2012</v>
       </c>
-      <c r="G499" t="s">
+      <c r="G499" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H499" s="1">
@@ -44090,7 +44545,7 @@
       <c r="F500">
         <v>2014</v>
       </c>
-      <c r="G500" t="s">
+      <c r="G500" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H500" s="1">
@@ -44121,7 +44576,7 @@
       <c r="F501">
         <v>2015</v>
       </c>
-      <c r="G501" t="s">
+      <c r="G501" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H501" s="1">
@@ -44183,7 +44638,7 @@
       <c r="F503">
         <v>2017</v>
       </c>
-      <c r="G503" t="s">
+      <c r="G503" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H503" s="1">
@@ -44214,7 +44669,7 @@
       <c r="F504">
         <v>2012</v>
       </c>
-      <c r="G504" t="s">
+      <c r="G504" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H504" s="1">
@@ -44307,7 +44762,7 @@
       <c r="F507">
         <v>2010</v>
       </c>
-      <c r="G507" t="s">
+      <c r="G507" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H507" s="1">
@@ -44338,7 +44793,7 @@
       <c r="F508">
         <v>2011</v>
       </c>
-      <c r="G508" t="s">
+      <c r="G508" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H508" s="1">
@@ -44431,7 +44886,7 @@
       <c r="F511">
         <v>2010</v>
       </c>
-      <c r="G511" t="s">
+      <c r="G511" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H511" s="1">
@@ -44462,7 +44917,7 @@
       <c r="F512">
         <v>2010</v>
       </c>
-      <c r="G512" t="s">
+      <c r="G512" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H512" s="1">
@@ -44493,7 +44948,7 @@
       <c r="F513">
         <v>2011</v>
       </c>
-      <c r="G513" t="s">
+      <c r="G513" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H513" s="1">
@@ -44586,7 +45041,7 @@
       <c r="F516">
         <v>2010</v>
       </c>
-      <c r="G516" t="s">
+      <c r="G516" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H516" s="1">
@@ -44617,7 +45072,7 @@
       <c r="F517">
         <v>2011</v>
       </c>
-      <c r="G517" t="s">
+      <c r="G517" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H517" s="1">
@@ -44648,7 +45103,7 @@
       <c r="F518">
         <v>2014</v>
       </c>
-      <c r="G518" t="s">
+      <c r="G518" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H518" s="1">
@@ -44710,7 +45165,7 @@
       <c r="F520">
         <v>2013</v>
       </c>
-      <c r="G520" t="s">
+      <c r="G520" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H520" s="1">
@@ -44772,7 +45227,7 @@
       <c r="F522">
         <v>2010</v>
       </c>
-      <c r="G522" t="s">
+      <c r="G522" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H522" s="1">
@@ -44803,7 +45258,7 @@
       <c r="F523">
         <v>2012</v>
       </c>
-      <c r="G523" t="s">
+      <c r="G523" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H523" s="1">
@@ -44834,7 +45289,7 @@
       <c r="F524">
         <v>2010</v>
       </c>
-      <c r="G524" t="s">
+      <c r="G524" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H524" s="1">
@@ -44865,7 +45320,7 @@
       <c r="F525">
         <v>2010</v>
       </c>
-      <c r="G525" t="s">
+      <c r="G525" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H525" s="1">
@@ -44896,7 +45351,7 @@
       <c r="F526">
         <v>2010</v>
       </c>
-      <c r="G526" t="s">
+      <c r="G526" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H526" s="1">
@@ -44927,7 +45382,7 @@
       <c r="F527">
         <v>2010</v>
       </c>
-      <c r="G527" t="s">
+      <c r="G527" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H527" s="1">
@@ -44958,7 +45413,7 @@
       <c r="F528">
         <v>2011</v>
       </c>
-      <c r="G528" t="s">
+      <c r="G528" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H528" s="1">
@@ -44989,7 +45444,7 @@
       <c r="F529">
         <v>2012</v>
       </c>
-      <c r="G529" t="s">
+      <c r="G529" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H529" s="1">
@@ -45020,7 +45475,7 @@
       <c r="F530">
         <v>2013</v>
       </c>
-      <c r="G530" t="s">
+      <c r="G530" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H530" s="1">
@@ -45051,7 +45506,7 @@
       <c r="F531">
         <v>2014</v>
       </c>
-      <c r="G531" t="s">
+      <c r="G531" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H531" s="1">
@@ -45082,7 +45537,7 @@
       <c r="F532">
         <v>2014</v>
       </c>
-      <c r="G532" t="s">
+      <c r="G532" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H532" s="1">
@@ -45206,7 +45661,7 @@
       <c r="F536">
         <v>2016</v>
       </c>
-      <c r="G536" t="s">
+      <c r="G536" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H536" s="1">
@@ -45330,7 +45785,7 @@
       <c r="F540">
         <v>2010</v>
       </c>
-      <c r="G540" t="s">
+      <c r="G540" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H540" s="1">
@@ -45361,7 +45816,7 @@
       <c r="F541">
         <v>2011</v>
       </c>
-      <c r="G541" t="s">
+      <c r="G541" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H541" s="1">
@@ -45392,7 +45847,7 @@
       <c r="F542">
         <v>2010</v>
       </c>
-      <c r="G542" t="s">
+      <c r="G542" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H542" s="1">
@@ -45423,7 +45878,7 @@
       <c r="F543">
         <v>2010</v>
       </c>
-      <c r="G543" t="s">
+      <c r="G543" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H543" s="1">
@@ -45454,7 +45909,7 @@
       <c r="F544">
         <v>2010</v>
       </c>
-      <c r="G544" t="s">
+      <c r="G544" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H544" s="1">
@@ -45485,7 +45940,7 @@
       <c r="F545">
         <v>2010</v>
       </c>
-      <c r="G545" t="s">
+      <c r="G545" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H545" s="1">
@@ -45516,7 +45971,7 @@
       <c r="F546">
         <v>2010</v>
       </c>
-      <c r="G546" t="s">
+      <c r="G546" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H546" s="1">
@@ -45547,7 +46002,7 @@
       <c r="F547">
         <v>2010</v>
       </c>
-      <c r="G547" t="s">
+      <c r="G547" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H547" s="1">
@@ -45609,7 +46064,7 @@
       <c r="F549">
         <v>2010</v>
       </c>
-      <c r="G549" t="s">
+      <c r="G549" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H549" s="1">
@@ -45640,7 +46095,7 @@
       <c r="F550">
         <v>2013</v>
       </c>
-      <c r="G550" t="s">
+      <c r="G550" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H550" s="1">
@@ -45711,10 +46166,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="90" priority="3" operator="containsText" text="Non Fiction">
+    <cfRule type="containsText" dxfId="218" priority="3" operator="containsText" text="Non Fiction">
       <formula>NOT(ISERROR(SEARCH("Non Fiction",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="5" operator="containsText" text="Fiction">
+    <cfRule type="containsText" dxfId="217" priority="5" operator="containsText" text="Fiction">
       <formula>NOT(ISERROR(SEARCH("Fiction",G1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -45734,10 +46189,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="88" priority="1" operator="containsText" text="not recommended">
+    <cfRule type="containsText" dxfId="216" priority="1" operator="containsText" text="not recommended">
       <formula>NOT(ISERROR(SEARCH("not recommended",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="2" operator="containsText" text="recommended">
+    <cfRule type="containsText" dxfId="215" priority="2" operator="containsText" text="recommended">
       <formula>NOT(ISERROR(SEARCH("recommended",I1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -45987,8 +46442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F90C0F-9EEA-433B-82DC-7DE212539553}">
   <dimension ref="C23:J41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45997,8 +46452,8 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
@@ -46207,6 +46662,11 @@
       </c>
       <c r="J36" s="1">
         <v>78499398</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
@@ -46224,7 +46684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE82D139-8DAE-4680-A57B-2DD6370E7967}">
   <dimension ref="A6:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -46744,7 +47204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E801BF-42B7-48AF-B350-ADE6E5FA5F89}">
   <dimension ref="B11:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -47213,10 +47673,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H25">
-    <cfRule type="containsText" dxfId="77" priority="4" operator="containsText" text="Non Fiction">
+    <cfRule type="containsText" dxfId="206" priority="4" operator="containsText" text="Non Fiction">
       <formula>NOT(ISERROR(SEARCH("Non Fiction",H11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="Fiction">
+    <cfRule type="containsText" dxfId="205" priority="5" operator="containsText" text="Fiction">
       <formula>NOT(ISERROR(SEARCH("Fiction",H11)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -47236,10 +47696,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J21 J23:J25">
-    <cfRule type="containsText" dxfId="75" priority="2" operator="containsText" text="not recommended">
+    <cfRule type="containsText" dxfId="204" priority="2" operator="containsText" text="not recommended">
       <formula>NOT(ISERROR(SEARCH("not recommended",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="recommended">
+    <cfRule type="containsText" dxfId="203" priority="3" operator="containsText" text="recommended">
       <formula>NOT(ISERROR(SEARCH("recommended",J11)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -47293,7 +47753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAAE5B1-79D2-40F7-AC7D-4FECDF809B74}">
   <dimension ref="A3:L603"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -52761,8 +53221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3EC1E-E274-411D-8AE6-91F3664A6166}">
   <dimension ref="D5:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
